--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -49,9 +49,6 @@
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -67,30 +64,36 @@
     <t>smaller</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -106,25 +109,22 @@
     <t>work</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
   </si>
   <si>
     <t>favorite</t>
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7954545454545454</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K5">
-        <v>0.7419354838709677</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="M5">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K6">
-        <v>0.5660377358490566</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7473118279569892</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="C7">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K7">
-        <v>0.484375</v>
+        <v>0.5</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7183098591549296</v>
+        <v>0.7038834951456311</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="D8">
-        <v>51</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>0.3418032786885246</v>
+        <v>0.3352459016393443</v>
       </c>
       <c r="L8">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M8">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>803</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7135922330097088</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C9">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K9">
-        <v>0.2797704447632712</v>
+        <v>0.3113342898134864</v>
       </c>
       <c r="L9">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="M9">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6351351351351351</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C10">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K10">
-        <v>0.2365145228215768</v>
+        <v>0.2551867219917012</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5966386554621849</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K11">
-        <v>0.2108433734939759</v>
+        <v>0.1867469879518072</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C12">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.1834862385321101</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L12">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M12">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4337349397590362</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C13">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>0.0736196319018405</v>
+        <v>0.08501314636283962</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1057</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4105263157894737</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1152,31 +1152,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K14">
-        <v>0.02792207792207792</v>
+        <v>0.02790395846852693</v>
       </c>
       <c r="L14">
         <v>43</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1184,13 +1184,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4015748031496063</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C15">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3465346534653465</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>132</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1236,13 +1236,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3258426966292135</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1262,13 +1262,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3125</v>
+        <v>0.3203125</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1288,13 +1288,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2843601895734597</v>
+        <v>0.2938388625592417</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1314,13 +1314,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2268041237113402</v>
+        <v>0.2920792079207921</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1340,13 +1340,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.185459940652819</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C21">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>549</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1366,13 +1366,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.177536231884058</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>227</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1392,13 +1392,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1772151898734177</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>260</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1418,13 +1418,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1550632911392405</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1444,13 +1444,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1379310344827586</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C25">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>300</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1470,13 +1470,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1277533039647577</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C26">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D26">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1496,25 +1496,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08493150684931507</v>
+        <v>0.138328530259366</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>334</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1522,25 +1522,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06589785831960461</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
